--- a/www.eia.gov/electricity/monthly/xls/table_4_13_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_13_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
-  <si>
-    <t>Table 4.13.A. Average Cost of Natural Gas Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+  <si>
+    <t>Table 4.13.A. Average Cost of Natural Gas Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>NM</t>
   </si>
   <si>
     <t>Pacific Contiguous</t>
@@ -1297,25 +1294,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="10">
-        <v>2.77</v>
+        <v>3.57</v>
       </c>
       <c r="C5" s="10">
-        <v>3.79</v>
+        <v>4.16</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.27</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E5" s="10">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="F5" s="10">
-        <v>3.13</v>
+        <v>5.29</v>
       </c>
       <c r="G5" s="10">
-        <v>2.77</v>
+        <v>3.57</v>
       </c>
       <c r="H5" s="10">
-        <v>3.8</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,13 +1320,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="13">
-        <v>2.39</v>
+        <v>3.26</v>
       </c>
       <c r="C6" s="13">
-        <v>3.08</v>
+        <v>5</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.22</v>
+        <v>-0.35</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>12</v>
@@ -1338,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="13">
-        <v>2.39</v>
+        <v>3.26</v>
       </c>
       <c r="H6" s="13">
-        <v>3.08</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>14</v>
@@ -1364,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>14</v>
@@ -1375,25 +1372,25 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>3.27</v>
+        <v>4.46</v>
       </c>
       <c r="C8" s="13">
-        <v>4.2</v>
+        <v>3.52</v>
       </c>
       <c r="D8" s="14">
-        <v>-0.22</v>
+        <v>0.27</v>
       </c>
       <c r="E8" s="13">
-        <v>3.12</v>
+        <v>3.33</v>
       </c>
       <c r="F8" s="13">
-        <v>3.11</v>
+        <v>3.53</v>
       </c>
       <c r="G8" s="13">
-        <v>3.27</v>
+        <v>4.47</v>
       </c>
       <c r="H8" s="13">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1409,11 +1406,11 @@
       <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13">
-        <v>9.23</v>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="13">
-        <v>3.93</v>
+        <v>6.81</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>14</v>
@@ -1430,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="13">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>14</v>
@@ -1445,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="13">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1476,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="10">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="C12" s="10">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="D12" s="11">
-        <v>-0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="10">
-        <v>1.52</v>
+        <v>3.28</v>
       </c>
       <c r="F12" s="10">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
       <c r="G12" s="10">
-        <v>1.61</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H12" s="10">
-        <v>2.0299999999999998</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="13">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
       <c r="C13" s="13">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="D13" s="14">
-        <v>-7.6999999999999999E-2</v>
+        <v>0.36</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>12</v>
@@ -1520,10 +1517,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="13">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
       <c r="H13" s="13">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1528,25 @@
         <v>21</v>
       </c>
       <c r="B14" s="13">
-        <v>1.92</v>
+        <v>2.86</v>
       </c>
       <c r="C14" s="13">
+        <v>2.61</v>
+      </c>
+      <c r="D14" s="14">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3.28</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2.72</v>
+      </c>
+      <c r="H14" s="13">
         <v>2.52</v>
-      </c>
-      <c r="D14" s="14">
-        <v>-0.24</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.52</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="G14" s="13">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2.56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>1.24</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C15" s="13">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -1572,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="13">
-        <v>1.24</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H15" s="13">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,33 +1580,33 @@
         <v>23</v>
       </c>
       <c r="B16" s="10">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="C16" s="10">
-        <v>2.56</v>
+        <v>2.35</v>
       </c>
       <c r="D16" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E16" s="10">
-        <v>3.06</v>
+        <v>2.78</v>
       </c>
       <c r="F16" s="10">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="G16" s="10">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="10">
-        <v>2.4900000000000002</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13">
-        <v>3.13</v>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>14</v>
@@ -1618,13 +1615,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="13">
-        <v>3.54</v>
+        <v>3.03</v>
       </c>
       <c r="F17" s="13">
-        <v>4.17</v>
-      </c>
-      <c r="G17" s="13">
-        <v>3.09</v>
+        <v>3.56</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>14</v>
@@ -1644,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="13">
-        <v>3.26</v>
+        <v>2.79</v>
       </c>
       <c r="F18" s="13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>14</v>
@@ -1661,25 +1658,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="13">
-        <v>3.09</v>
+        <v>2.67</v>
       </c>
       <c r="C19" s="13">
-        <v>2.83</v>
+        <v>2.48</v>
       </c>
       <c r="D19" s="14">
-        <v>9.1999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E19" s="13">
-        <v>3.19</v>
+        <v>2.82</v>
       </c>
       <c r="F19" s="13">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="G19" s="13">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="H19" s="13">
-        <v>2.81</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,25 +1684,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="13">
-        <v>2.16</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="13">
-        <v>2.0499999999999998</v>
+        <v>1.96</v>
       </c>
       <c r="D20" s="14">
-        <v>5.3999999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E20" s="13">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="F20" s="13">
-        <v>2.0499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="G20" s="13">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="H20" s="13">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1722,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="13">
-        <v>3.47</v>
+        <v>3.1</v>
       </c>
       <c r="F21" s="13">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>14</v>
@@ -1739,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="10">
-        <v>3.43</v>
+        <v>3.06</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>14</v>
@@ -1748,13 +1745,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="10">
-        <v>3.37</v>
+        <v>2.99</v>
       </c>
       <c r="F22" s="10">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="G22" s="10">
-        <v>4.12</v>
+        <v>3.9</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>14</v>
@@ -1765,19 +1762,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="C23" s="13">
-        <v>2.71</v>
+        <v>4.75</v>
       </c>
       <c r="D23" s="14">
-        <v>4.3999999999999997E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="E23" s="13">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="F23" s="13">
-        <v>2.71</v>
+        <v>4.75</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>12</v>
@@ -1791,19 +1788,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="13">
+        <v>3.16</v>
+      </c>
+      <c r="C24" s="13">
         <v>3.8</v>
       </c>
-      <c r="C24" s="13">
-        <v>4.5</v>
-      </c>
       <c r="D24" s="14">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="E24" s="13">
+        <v>3.16</v>
+      </c>
+      <c r="F24" s="13">
         <v>3.8</v>
-      </c>
-      <c r="F24" s="13">
-        <v>4.5</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>12</v>
@@ -1826,10 +1823,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="13">
-        <v>3.99</v>
+        <v>3.34</v>
       </c>
       <c r="F25" s="13">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>14</v>
@@ -1852,10 +1849,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="13">
-        <v>3.21</v>
+        <v>2.64</v>
       </c>
       <c r="F26" s="13">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>14</v>
@@ -1869,19 +1866,19 @@
         <v>34</v>
       </c>
       <c r="B27" s="13">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="C27" s="13">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="D27" s="14">
-        <v>9.6000000000000002E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="F27" s="13">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>12</v>
@@ -1895,19 +1892,19 @@
         <v>35</v>
       </c>
       <c r="B28" s="13">
-        <v>3.11</v>
+        <v>2.74</v>
       </c>
       <c r="C28" s="13">
-        <v>8.7899999999999991</v>
+        <v>11.52</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.65</v>
+        <v>-0.76</v>
       </c>
       <c r="E28" s="13">
-        <v>3.11</v>
+        <v>2.74</v>
       </c>
       <c r="F28" s="13">
-        <v>8.7899999999999991</v>
+        <v>11.52</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>12</v>
@@ -1921,19 +1918,19 @@
         <v>36</v>
       </c>
       <c r="B29" s="13">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="C29" s="13">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="D29" s="14">
-        <v>0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E29" s="13">
-        <v>3.19</v>
+        <v>2.36</v>
       </c>
       <c r="F29" s="13">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>12</v>
@@ -1947,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>3.82</v>
+        <v>3.74</v>
       </c>
       <c r="C30" s="10">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="D30" s="11">
-        <v>4.7E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="10">
-        <v>3.94</v>
+        <v>3.8</v>
       </c>
       <c r="F30" s="10">
-        <v>3.81</v>
+        <v>3.53</v>
       </c>
       <c r="G30" s="10">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="H30" s="10">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,22 +2025,22 @@
         <v>14</v>
       </c>
       <c r="C33" s="13">
-        <v>4.17</v>
+        <v>3.85</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="13">
-        <v>4.0599999999999996</v>
+        <v>4.01</v>
       </c>
       <c r="F33" s="13">
-        <v>4.21</v>
+        <v>3.9</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="13">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="13">
-        <v>3.47</v>
+        <v>3.04</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>14</v>
@@ -2060,13 +2057,13 @@
         <v>14</v>
       </c>
       <c r="E34" s="13">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="F34" s="13">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G34" s="13">
-        <v>3.38</v>
+        <v>2.87</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>14</v>
@@ -2077,13 +2074,13 @@
         <v>42</v>
       </c>
       <c r="B35" s="13">
-        <v>2.65</v>
+        <v>3.47</v>
       </c>
       <c r="C35" s="13">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="D35" s="14">
-        <v>-9.1999999999999998E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>12</v>
@@ -2092,10 +2089,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="13">
-        <v>2.65</v>
+        <v>3.47</v>
       </c>
       <c r="H35" s="13">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,10 +2109,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="13">
-        <v>4.1100000000000003</v>
+        <v>3.54</v>
       </c>
       <c r="F36" s="13">
-        <v>4.26</v>
+        <v>3.67</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>14</v>
@@ -2138,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="13">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="F37" s="13">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>14</v>
@@ -2164,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="13">
-        <v>4.1900000000000004</v>
+        <v>4.54</v>
       </c>
       <c r="F38" s="13">
-        <v>2.56</v>
+        <v>3.16</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>14</v>
@@ -2181,25 +2178,25 @@
         <v>46</v>
       </c>
       <c r="B39" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>14</v>
+        <v>2.66</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.77</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.5</v>
       </c>
       <c r="E39" s="13">
-        <v>2.95</v>
+        <v>2.46</v>
       </c>
       <c r="F39" s="13">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="G39" s="13">
-        <v>1.51</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>14</v>
+        <v>2.76</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1.77</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,25 +2204,25 @@
         <v>47</v>
       </c>
       <c r="B40" s="10">
-        <v>3.18</v>
+        <v>2.87</v>
       </c>
       <c r="C40" s="10">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="D40" s="11">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E40" s="10">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="F40" s="10">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="G40" s="10">
-        <v>3.24</v>
+        <v>2.8</v>
       </c>
       <c r="H40" s="10">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,10 +2239,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="13">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="F41" s="13">
-        <v>2.84</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -2261,23 +2258,23 @@
       <c r="B42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>14</v>
+      <c r="C42" s="13">
+        <v>2.4700000000000002</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="13">
-        <v>3.57</v>
+        <v>3.06</v>
       </c>
       <c r="F42" s="13">
-        <v>2.87</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2294,10 +2291,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="13">
-        <v>3.06</v>
+        <v>2.77</v>
       </c>
       <c r="F43" s="13">
-        <v>2.58</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>14</v>
@@ -2311,19 +2308,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="C44" s="13">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="D44" s="14">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E44" s="13">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="F44" s="13">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>12</v>
@@ -2337,25 +2334,25 @@
         <v>52</v>
       </c>
       <c r="B45" s="10">
-        <v>3.16</v>
+        <v>2.67</v>
       </c>
       <c r="C45" s="10">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="D45" s="11">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E45" s="10">
-        <v>3.25</v>
+        <v>2.83</v>
       </c>
       <c r="F45" s="10">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="G45" s="10">
-        <v>3.1</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H45" s="10">
-        <v>2.5299999999999998</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,10 +2369,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="13">
-        <v>3.49</v>
+        <v>3.03</v>
       </c>
       <c r="F46" s="13">
-        <v>4.0599999999999996</v>
+        <v>2.72</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>14</v>
@@ -2398,10 +2395,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="13">
-        <v>3.22</v>
+        <v>2.86</v>
       </c>
       <c r="F47" s="13">
-        <v>2.65</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>14</v>
@@ -2424,10 +2421,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="13">
-        <v>3.24</v>
+        <v>2.73</v>
       </c>
       <c r="F48" s="13">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>14</v>
@@ -2441,25 +2438,25 @@
         <v>56</v>
       </c>
       <c r="B49" s="13">
-        <v>3.15</v>
+        <v>2.64</v>
       </c>
       <c r="C49" s="13">
+        <v>2.23</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2.85</v>
+      </c>
+      <c r="F49" s="13">
+        <v>2.42</v>
+      </c>
+      <c r="G49" s="13">
         <v>2.57</v>
       </c>
-      <c r="D49" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="E49" s="13">
-        <v>3.24</v>
-      </c>
-      <c r="F49" s="13">
-        <v>2.66</v>
-      </c>
-      <c r="G49" s="13">
-        <v>3.12</v>
-      </c>
       <c r="H49" s="13">
-        <v>2.5499999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2464,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="10">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>14</v>
@@ -2476,13 +2473,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="10">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="F50" s="10">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="G50" s="10">
-        <v>2.81</v>
+        <v>3.23</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>14</v>
@@ -2502,10 +2499,10 @@
         <v>14</v>
       </c>
       <c r="E51" s="13">
-        <v>3.68</v>
+        <v>3.57</v>
       </c>
       <c r="F51" s="13">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>14</v>
@@ -2528,10 +2525,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="13">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="F52" s="13">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>14</v>
@@ -2545,19 +2542,19 @@
         <v>60</v>
       </c>
       <c r="B53" s="13">
-        <v>4.78</v>
+        <v>4.66</v>
       </c>
       <c r="C53" s="13">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="D53" s="14">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="E53" s="13">
-        <v>4.78</v>
+        <v>4.66</v>
       </c>
       <c r="F53" s="13">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>12</v>
@@ -2583,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="13">
-        <v>2.0699999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>12</v>
@@ -2597,19 +2594,19 @@
         <v>62</v>
       </c>
       <c r="B55" s="13">
-        <v>3.37</v>
+        <v>3.23</v>
       </c>
       <c r="C55" s="13">
-        <v>3.1</v>
+        <v>2.73</v>
       </c>
       <c r="D55" s="14">
-        <v>8.6999999999999994E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E55" s="13">
-        <v>3.37</v>
+        <v>3.23</v>
       </c>
       <c r="F55" s="13">
-        <v>3.1</v>
+        <v>2.73</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>12</v>
@@ -2623,19 +2620,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
       <c r="C56" s="13">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="D56" s="14">
-        <v>7.0999999999999994E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E56" s="13">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
       <c r="F56" s="13">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>12</v>
@@ -2658,10 +2655,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="13">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
       <c r="F57" s="13">
-        <v>2.85</v>
+        <v>2.46</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>14</v>
@@ -2675,19 +2672,19 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>4893.63</v>
+        <v>12.11</v>
       </c>
       <c r="C58" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>66</v>
+        <v>3.59</v>
+      </c>
+      <c r="D58" s="14">
+        <v>2.37</v>
       </c>
       <c r="E58" s="13">
-        <v>4893.63</v>
+        <v>12.11</v>
       </c>
       <c r="F58" s="13">
-        <v>4.2699999999999996</v>
+        <v>3.59</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>12</v>
@@ -2698,59 +2695,59 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="10">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="C59" s="10">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="D59" s="11">
-        <v>7.2999999999999995E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E59" s="10">
         <v>3.52</v>
       </c>
       <c r="F59" s="10">
-        <v>3.27</v>
+        <v>3.14</v>
       </c>
       <c r="G59" s="10">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="H59" s="10">
-        <v>2.84</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="13">
-        <v>3.33</v>
+        <v>3.18</v>
       </c>
       <c r="C60" s="13">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="D60" s="14">
-        <v>7.8E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E60" s="13">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="F60" s="13">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="G60" s="13">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="H60" s="13">
-        <v>2.91</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>14</v>
@@ -2762,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="13">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F61" s="13">
-        <v>2.68</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>14</v>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>14</v>
@@ -2788,10 +2785,10 @@
         <v>14</v>
       </c>
       <c r="E62" s="13">
-        <v>4.2</v>
+        <v>3.96</v>
       </c>
       <c r="F62" s="13">
-        <v>3.42</v>
+        <v>3.22</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>14</v>
@@ -2802,22 +2799,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="10">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="C63" s="10">
-        <v>5.42</v>
+        <v>5.45</v>
       </c>
       <c r="D63" s="11">
         <v>0.26</v>
       </c>
       <c r="E63" s="10">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="F63" s="10">
-        <v>5.42</v>
+        <v>5.45</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>12</v>
@@ -2828,22 +2825,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="13">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="C64" s="13">
-        <v>5.42</v>
+        <v>5.45</v>
       </c>
       <c r="D64" s="14">
         <v>0.26</v>
       </c>
       <c r="E64" s="13">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="F64" s="13">
-        <v>5.42</v>
+        <v>5.45</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>12</v>
@@ -2854,7 +2851,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>12</v>
@@ -2880,33 +2877,33 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="10">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="C66" s="10">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="D66" s="11">
-        <v>6.8000000000000005E-2</v>
+        <v>0.13</v>
       </c>
       <c r="E66" s="10">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="F66" s="10">
-        <v>3.25</v>
+        <v>2.97</v>
       </c>
       <c r="G66" s="10">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H66" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
